--- a/タスク表/タスク表_2018_10_02.xlsx
+++ b/タスク表/タスク表_2018_10_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>魔導協会</t>
     <rPh sb="0" eb="4">
@@ -461,6 +461,23 @@
     <t>リソースも含めて</t>
     <rPh sb="5" eb="6">
       <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗状態</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -545,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -658,11 +675,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -795,9 +834,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -853,6 +889,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,7 +1223,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1175,7 +1232,7 @@
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
     <col min="6" max="6" width="75" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1183,17 +1240,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1202,8 +1259,11 @@
       <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>4</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>50</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>22</v>
@@ -1214,7 +1274,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="25"/>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -1223,8 +1283,11 @@
       <c r="E5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="H5" s="46" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="80" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="43"/>
@@ -1233,7 +1296,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="25"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="26" t="s">
@@ -1242,10 +1305,11 @@
       <c r="E6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="67"/>
+      <c r="H6" s="46" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="43"/>
@@ -1254,7 +1318,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -1263,10 +1327,11 @@
       <c r="E7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="46" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="43"/>
@@ -1275,7 +1340,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="25"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -1284,10 +1349,11 @@
       <c r="E8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="46" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="43"/>
@@ -1305,8 +1371,9 @@
       <c r="E9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="H9" s="47" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="46" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="43"/>
@@ -1324,8 +1391,9 @@
       <c r="E10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="H10" s="47"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="46"/>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
@@ -1341,8 +1409,9 @@
       <c r="E11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="H11" s="47"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="46"/>
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
@@ -1358,10 +1427,11 @@
       <c r="E12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="47"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="46"/>
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
@@ -1377,10 +1447,11 @@
       <c r="E13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="46"/>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
@@ -1396,10 +1467,11 @@
       <c r="E14" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="47"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="46"/>
       <c r="J14" s="43"/>
       <c r="K14" s="43"/>
       <c r="L14" s="43"/>
@@ -1409,8 +1481,9 @@
       <c r="C15" s="42"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="52"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="46"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
       <c r="L15" s="43"/>
@@ -1422,19 +1495,21 @@
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="53"/>
-      <c r="H16" s="47"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="46"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
       <c r="L16" s="43"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="16"/>
-      <c r="C17" s="63"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="54"/>
-      <c r="H17" s="47"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="46"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
       <c r="L17" s="43"/>
@@ -1444,8 +1519,9 @@
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="55"/>
-      <c r="H18" s="47"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="46"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
       <c r="L18" s="43"/>
@@ -1456,7 +1532,8 @@
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
       <c r="F19" s="5"/>
-      <c r="H19" s="48"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="47"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
@@ -1469,23 +1546,25 @@
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="37"/>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="22"/>
-      <c r="C21" s="56"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="38"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="56"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="74"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="38"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1496,7 +1575,7 @@
       <c r="D23" s="36"/>
       <c r="E23" s="35"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1505,18 +1584,18 @@
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="62"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="31"/>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="39" t="s">
@@ -1525,13 +1604,14 @@
       <c r="E25" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="58" t="s">
         <v>19</v>
       </c>
+      <c r="G25" s="76"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="31"/>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="59" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="39" t="s">
@@ -1540,13 +1620,14 @@
       <c r="E26" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="59" t="s">
         <v>20</v>
       </c>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="31"/>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="59" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="39" t="s">
@@ -1555,16 +1636,18 @@
       <c r="E27" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="59" t="s">
         <v>20</v>
       </c>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="33"/>
-      <c r="C28" s="61"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="33"/>
       <c r="E28" s="34"/>
-      <c r="F28" s="61"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="G29" s="2"/>
@@ -1589,10 +1672,10 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
@@ -1620,8 +1703,8 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>

--- a/タスク表/タスク表_2018_10_02.xlsx
+++ b/タスク表/タスク表_2018_10_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>魔導協会</t>
     <rPh sb="0" eb="4">
@@ -479,6 +479,23 @@
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り：十字スティックのOnDown判定</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストーリーテキスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -881,15 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -910,6 +918,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,7 +1240,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1240,11 +1257,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
@@ -1262,7 +1279,7 @@
       <c r="F4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="63" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="45" t="s">
@@ -1283,11 +1300,11 @@
       <c r="E5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="66" t="s">
+      <c r="F5" s="76"/>
+      <c r="G5" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="77" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="43"/>
@@ -1308,7 +1325,7 @@
       <c r="F6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="67"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="46" t="s">
         <v>24</v>
       </c>
@@ -1330,7 +1347,7 @@
       <c r="F7" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="67"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="46" t="s">
         <v>25</v>
       </c>
@@ -1352,7 +1369,7 @@
       <c r="F8" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="46" t="s">
         <v>26</v>
       </c>
@@ -1371,8 +1388,10 @@
       <c r="E9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="67"/>
+      <c r="F9" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="64"/>
       <c r="H9" s="46" t="s">
         <v>27</v>
       </c>
@@ -1392,7 +1411,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="50"/>
-      <c r="G10" s="67"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="46"/>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
@@ -1410,7 +1429,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="50"/>
-      <c r="G11" s="67"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="46"/>
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
@@ -1430,7 +1449,7 @@
       <c r="F12" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="67"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="46"/>
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
@@ -1450,7 +1469,7 @@
       <c r="F13" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="67"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="46"/>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
@@ -1470,7 +1489,7 @@
       <c r="F14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="67"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="46"/>
       <c r="J14" s="43"/>
       <c r="K14" s="43"/>
@@ -1482,7 +1501,7 @@
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
       <c r="F15" s="51"/>
-      <c r="G15" s="68"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="46"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -1496,7 +1515,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="46"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -1508,7 +1527,7 @@
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
       <c r="F17" s="53"/>
-      <c r="G17" s="70"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="46"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
@@ -1520,7 +1539,7 @@
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
       <c r="F18" s="54"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="46"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
@@ -1532,7 +1551,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="47"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
@@ -1546,17 +1565,19 @@
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="73"/>
+      <c r="G20" s="70"/>
       <c r="H20" s="37"/>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="22"/>
-      <c r="C21" s="55"/>
+      <c r="C21" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="D21" s="38"/>
       <c r="E21" s="23"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="74"/>
+      <c r="G21" s="71"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="22"/>
@@ -1588,7 +1609,7 @@
       <c r="D24" s="61"/>
       <c r="E24" s="14"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="75"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1607,7 +1628,7 @@
       <c r="F25" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="76"/>
+      <c r="G25" s="73"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="31"/>
@@ -1623,7 +1644,7 @@
       <c r="F26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="77"/>
+      <c r="G26" s="74"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="31"/>
@@ -1639,7 +1660,7 @@
       <c r="F27" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="77"/>
+      <c r="G27" s="74"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="33"/>
@@ -1647,7 +1668,7 @@
       <c r="D28" s="33"/>
       <c r="E28" s="34"/>
       <c r="F28" s="60"/>
-      <c r="G28" s="78"/>
+      <c r="G28" s="75"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="G29" s="2"/>
@@ -1672,10 +1693,10 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
@@ -1703,8 +1724,8 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>

--- a/タスク表/タスク表_2018_10_02.xlsx
+++ b/タスク表/タスク表_2018_10_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>魔導協会</t>
     <rPh sb="0" eb="4">
@@ -292,22 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>毎週金曜 &gt;&gt; 1,2限 実習</t>
-    <rPh sb="0" eb="2">
-      <t>マイシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10_10</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -482,20 +466,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残り：十字スティックのOnDown判定</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ストーリーテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1240,7 +1218,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>22</v>
@@ -1298,11 +1276,11 @@
         <v>13</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="76"/>
       <c r="G5" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="77" t="s">
         <v>23</v>
@@ -1320,7 +1298,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="50" t="s">
         <v>14</v>
@@ -1336,16 +1314,16 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
       <c r="C7" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="64"/>
       <c r="H7" s="46" t="s">
@@ -1364,7 +1342,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="50" t="s">
         <v>21</v>
@@ -1380,21 +1358,19 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
       <c r="C9" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="E9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="46" t="s">
-        <v>27</v>
-      </c>
+      <c r="H9" s="46"/>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
@@ -1402,13 +1378,13 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="64"/>
@@ -1420,13 +1396,13 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
       <c r="C11" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="64"/>
@@ -1438,16 +1414,16 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>43</v>
-      </c>
       <c r="F12" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="46"/>
@@ -1458,16 +1434,16 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>45</v>
-      </c>
       <c r="F13" s="50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="64"/>
       <c r="H13" s="46"/>
@@ -1478,16 +1454,16 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="46"/>
@@ -1572,7 +1548,7 @@
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="22"/>
       <c r="C21" s="55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="23"/>
@@ -1623,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="58" t="s">
         <v>19</v>
@@ -1639,7 +1615,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="59" t="s">
         <v>20</v>
@@ -1655,7 +1631,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="59" t="s">
         <v>20</v>

--- a/タスク表/タスク表_2018_10_02.xlsx
+++ b/タスク表/タスク表_2018_10_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>魔導協会</t>
     <rPh sb="0" eb="4">
@@ -92,141 +92,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>企画書の制作</t>
-    <rPh sb="0" eb="3">
-      <t>キカクショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕様書の制作</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計書の制作</t>
-    <rPh sb="0" eb="3">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全員</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unityのシステムをどこまで使うかなども含めて全て決める</t>
-    <rPh sb="15" eb="16">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>板倉</t>
-    <rPh sb="0" eb="2">
-      <t>イタクラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップチップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕様書記載のモーション全て</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>スベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>案出しは全員</t>
-    <rPh sb="0" eb="1">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゼンイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各自の担当を決めて提出＆全員がほかの人の設計書に目を通すこと</t>
-    <rPh sb="0" eb="2">
-      <t>カクジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>連絡事項</t>
     <rPh sb="0" eb="2">
       <t>レンラク</t>
@@ -292,163 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10_10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10_17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10_23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵案出し</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10_19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>魔導協会の人間や、そこが作り出した魔導機械</t>
-    <rPh sb="0" eb="2">
-      <t>マドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キョウカイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>マドウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力システム</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>金子</t>
-    <rPh sb="0" eb="2">
-      <t>カネコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10_17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10_22</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベントシステム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>板倉</t>
-    <rPh sb="0" eb="2">
-      <t>イタクラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カメラマン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>薄井</t>
-    <rPh sb="0" eb="2">
-      <t>ウスイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーとマネージャー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10_24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10_29</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>細かいプレイヤーの挙動は29日まで</t>
-    <rPh sb="0" eb="1">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップチップ配置と当たり判定の生成</t>
-    <rPh sb="6" eb="8">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リソースも含めて</t>
-    <rPh sb="5" eb="6">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>進捗状態</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
@@ -459,20 +167,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ストーリーテキスト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
+    <t>StateSystem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金子</t>
+    <rPh sb="0" eb="2">
+      <t>カネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>板倉</t>
+    <rPh sb="0" eb="2">
+      <t>イタクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EventSystem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EffectSystem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄井</t>
+    <rPh sb="0" eb="2">
+      <t>ウスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemSystem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種リソース</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクひな形</t>
+    <rPh sb="5" eb="6">
+      <t>ガタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1218,7 +985,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1258,10 +1025,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
@@ -1270,20 +1037,16 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="25"/>
       <c r="C5" s="49" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E5" s="27"/>
       <c r="F5" s="76"/>
-      <c r="G5" s="63" t="s">
-        <v>50</v>
-      </c>
+      <c r="G5" s="63"/>
       <c r="H5" s="77" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
@@ -1292,20 +1055,16 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="25"/>
       <c r="C6" s="50" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>14</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="64"/>
       <c r="H6" s="46" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
@@ -1314,20 +1073,16 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
       <c r="C7" s="50" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="64"/>
       <c r="H7" s="46" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
@@ -1336,20 +1091,16 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="25"/>
       <c r="C8" s="50" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="64"/>
       <c r="H8" s="46" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
@@ -1358,18 +1109,14 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
       <c r="C9" s="41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E9" s="27"/>
       <c r="F9" s="50"/>
-      <c r="G9" s="64" t="s">
-        <v>52</v>
-      </c>
+      <c r="G9" s="64"/>
       <c r="H9" s="46"/>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
@@ -1378,14 +1125,12 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="41" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E10" s="27"/>
       <c r="F10" s="50"/>
       <c r="G10" s="64"/>
       <c r="H10" s="46"/>
@@ -1396,14 +1141,12 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
       <c r="C11" s="41" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E11" s="27"/>
       <c r="F11" s="50"/>
       <c r="G11" s="64"/>
       <c r="H11" s="46"/>
@@ -1413,18 +1156,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
-      <c r="C12" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>46</v>
-      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="64"/>
       <c r="H12" s="46"/>
       <c r="J12" s="43"/>
@@ -1434,17 +1169,13 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="41" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>47</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="64"/>
       <c r="H13" s="46"/>
       <c r="J13" s="43"/>
@@ -1453,18 +1184,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
-      <c r="C14" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>48</v>
-      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="64"/>
       <c r="H14" s="46"/>
       <c r="J14" s="43"/>
@@ -1548,7 +1271,7 @@
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="22"/>
       <c r="C21" s="55" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="23"/>
@@ -1593,49 +1316,29 @@
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="31"/>
       <c r="C25" s="58" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="73"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="31"/>
-      <c r="C26" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>20</v>
-      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="74"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="31"/>
-      <c r="C27" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>20</v>
-      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="74"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">

--- a/タスク表/タスク表_2018_10_02.xlsx
+++ b/タスク表/タスク表_2018_10_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>魔導協会</t>
     <rPh sb="0" eb="4">
@@ -240,6 +240,58 @@
     <t>タスクひな形</t>
     <rPh sb="5" eb="6">
       <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイアブル部門</t>
+    <rPh sb="6" eb="8">
+      <t>ブモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月11日1次審査:動画</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月4日2次審査:ゲーム</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月20日コンペ:プレイとプレゼン</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -985,7 +1037,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -995,7 +1047,8 @@
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
     <col min="6" max="6" width="75" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="10" width="26" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" customWidth="1"/>
+    <col min="9" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -1117,7 +1170,9 @@
       <c r="E9" s="27"/>
       <c r="F9" s="50"/>
       <c r="G9" s="64"/>
-      <c r="H9" s="46"/>
+      <c r="H9" s="46" t="s">
+        <v>30</v>
+      </c>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
@@ -1133,7 +1188,9 @@
       <c r="E10" s="27"/>
       <c r="F10" s="50"/>
       <c r="G10" s="64"/>
-      <c r="H10" s="46"/>
+      <c r="H10" s="46" t="s">
+        <v>31</v>
+      </c>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
@@ -1149,7 +1206,9 @@
       <c r="E11" s="27"/>
       <c r="F11" s="50"/>
       <c r="G11" s="64"/>
-      <c r="H11" s="46"/>
+      <c r="H11" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
@@ -1161,7 +1220,9 @@
       <c r="E12" s="27"/>
       <c r="F12" s="50"/>
       <c r="G12" s="64"/>
-      <c r="H12" s="46"/>
+      <c r="H12" s="46" t="s">
+        <v>33</v>
+      </c>
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
